--- a/A01-Hashing/results.xlsx
+++ b/A01-Hashing/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben-Study\Google Drive\School\Spring 20\CMPS 5243 Algorithm Analysis\Assignments\5243-AlgAn\A01-Hashing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578ED8D-0041-407D-A0AB-1B6F19353B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D333771A-E3AC-4BDF-858C-D854DCBC50AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42EB8948-4DF3-40BA-BB38-771E38CE045F}"/>
   </bookViews>
@@ -17,13 +17,14 @@
     <sheet name="Graph and Averages" sheetId="3" r:id="rId2"/>
     <sheet name="Hash Results (alternate format)" sheetId="2" r:id="rId3"/>
     <sheet name="Random Numbers" sheetId="5" r:id="rId4"/>
+    <sheet name="100k experiment" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="datafile" localSheetId="3">'Random Numbers'!$A$3:$J$55</definedName>
     <definedName name="output" localSheetId="0">'Hash Results'!$A$1:$W$327</definedName>
     <definedName name="output_1" localSheetId="2">'Hash Results (alternate format)'!$A$1:$D$2552</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="36">
   <si>
     <t>LINEAR PROBE WITH</t>
   </si>
@@ -209,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +227,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -268,13 +275,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -283,6 +304,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,14 +364,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average # of probes</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> # of probes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -442,7 +472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDB8-46DB-BB27-0548B5F79F79}"/>
+              <c16:uniqueId val="{00000000-5580-435D-B4E0-637C4B550937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -507,7 +537,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDB8-46DB-BB27-0548B5F79F79}"/>
+              <c16:uniqueId val="{00000001-5580-435D-B4E0-637C4B550937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -572,7 +602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FDB8-46DB-BB27-0548B5F79F79}"/>
+              <c16:uniqueId val="{00000002-5580-435D-B4E0-637C4B550937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -637,7 +667,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FDB8-46DB-BB27-0548B5F79F79}"/>
+              <c16:uniqueId val="{00000003-5580-435D-B4E0-637C4B550937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -651,11 +681,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172272320"/>
-        <c:axId val="167277552"/>
+        <c:axId val="2011341535"/>
+        <c:axId val="1867027679"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172272320"/>
+        <c:axId val="2011341535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167277552"/>
+        <c:crossAx val="1867027679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167277552"/>
+        <c:axId val="1867027679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +787,544 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172272320"/>
+        <c:crossAx val="2011341535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> # of probes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100k experiment'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear LF = 66</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'100k experiment'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Avg Probes #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Probes #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg of 2 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100k experiment'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18191.601999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18195.107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18193.354500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8C0-49AB-B6D8-05A6CA8C7941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100k experiment'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear LF = 80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'100k experiment'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Avg Probes #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Probes #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg of 2 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100k experiment'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25527.191999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25512.418000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25519.805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8C0-49AB-B6D8-05A6CA8C7941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100k experiment'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Double LF = 66</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'100k experiment'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Avg Probes #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Probes #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg of 2 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100k experiment'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5020.8379999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5053.9189999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037.3784999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D8C0-49AB-B6D8-05A6CA8C7941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100k experiment'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Double LF = 80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'100k experiment'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Avg Probes #1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Probes #2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Avg of 2 runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100k experiment'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7137.924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7191.0450000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7164.4845000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D8C0-49AB-B6D8-05A6CA8C7941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1317913536"/>
+        <c:axId val="1429059248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1317913536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429059248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1429059248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317913536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,6 +1405,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1380,27 +1987,571 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0522B9-6047-4210-AE40-39B9A9C7B9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A308C900-ED00-49B9-9701-C061D4C3F4E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBCB608-41C1-46A6-84CD-5B3266EDF129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C83907-68F6-4FD8-B9E6-D5D124A6670B}">
   <dimension ref="A1:AM326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
@@ -1741,39 +2892,39 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="7" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.85546875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="7" customWidth="1"/>
     <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.85546875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="7" customWidth="1"/>
     <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.85546875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="7" customWidth="1"/>
     <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.85546875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="2.85546875" style="7" customWidth="1"/>
     <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.85546875" style="8" customWidth="1"/>
+    <col min="36" max="36" width="2.85546875" style="7" customWidth="1"/>
     <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -4754,31 +5905,31 @@
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AJ40" s="9"/>
-    </row>
-    <row r="41" spans="1:39" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AJ41" s="8"/>
+    <row r="40" spans="1:39" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AJ40" s="8"/>
+    </row>
+    <row r="41" spans="1:39" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -7755,31 +8906,31 @@
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="AB81" s="9"/>
-      <c r="AF81" s="9"/>
-      <c r="AJ81" s="9"/>
-    </row>
-    <row r="82" spans="1:39" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="AB82" s="8"/>
-      <c r="AF82" s="8"/>
-      <c r="AJ82" s="8"/>
+    <row r="81" spans="1:39" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AJ81" s="8"/>
+    </row>
+    <row r="82" spans="1:39" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AJ82" s="7"/>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -10741,31 +11892,31 @@
       </c>
     </row>
     <row r="121" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:39" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="AB122" s="9"/>
-      <c r="AF122" s="9"/>
-      <c r="AJ122" s="9"/>
-    </row>
-    <row r="123" spans="1:39" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="X123" s="8"/>
-      <c r="AB123" s="8"/>
-      <c r="AF123" s="8"/>
-      <c r="AJ123" s="8"/>
+    <row r="122" spans="1:39" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="X122" s="8"/>
+      <c r="AB122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AJ122" s="8"/>
+    </row>
+    <row r="123" spans="1:39" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="AB123" s="7"/>
+      <c r="AF123" s="7"/>
+      <c r="AJ123" s="7"/>
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -13742,31 +14893,31 @@
       </c>
     </row>
     <row r="162" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:39" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="T163" s="9"/>
-      <c r="X163" s="9"/>
-      <c r="AB163" s="9"/>
-      <c r="AF163" s="9"/>
-      <c r="AJ163" s="9"/>
-    </row>
-    <row r="164" spans="1:39" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="T164" s="8"/>
-      <c r="X164" s="8"/>
-      <c r="AB164" s="8"/>
-      <c r="AF164" s="8"/>
-      <c r="AJ164" s="8"/>
+    <row r="163" spans="1:39" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="T163" s="8"/>
+      <c r="X163" s="8"/>
+      <c r="AB163" s="8"/>
+      <c r="AF163" s="8"/>
+      <c r="AJ163" s="8"/>
+    </row>
+    <row r="164" spans="1:39" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="T164" s="7"/>
+      <c r="X164" s="7"/>
+      <c r="AB164" s="7"/>
+      <c r="AF164" s="7"/>
+      <c r="AJ164" s="7"/>
     </row>
     <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -16743,31 +17894,31 @@
       </c>
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:36" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="9"/>
-      <c r="H204" s="9"/>
-      <c r="L204" s="9"/>
-      <c r="P204" s="9"/>
-      <c r="T204" s="9"/>
-      <c r="X204" s="9"/>
-      <c r="AB204" s="9"/>
-      <c r="AF204" s="9"/>
-      <c r="AJ204" s="9"/>
-    </row>
-    <row r="205" spans="1:36" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="P205" s="8"/>
-      <c r="T205" s="8"/>
-      <c r="X205" s="8"/>
-      <c r="AB205" s="8"/>
-      <c r="AF205" s="8"/>
-      <c r="AJ205" s="8"/>
+    <row r="204" spans="1:36" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="P204" s="8"/>
+      <c r="T204" s="8"/>
+      <c r="X204" s="8"/>
+      <c r="AB204" s="8"/>
+      <c r="AF204" s="8"/>
+      <c r="AJ204" s="8"/>
+    </row>
+    <row r="205" spans="1:36" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="P205" s="7"/>
+      <c r="T205" s="7"/>
+      <c r="X205" s="7"/>
+      <c r="AB205" s="7"/>
+      <c r="AF205" s="7"/>
+      <c r="AJ205" s="7"/>
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -19744,31 +20895,31 @@
       </c>
     </row>
     <row r="244" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:39" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="9"/>
-      <c r="H245" s="9"/>
-      <c r="L245" s="9"/>
-      <c r="P245" s="9"/>
-      <c r="T245" s="9"/>
-      <c r="X245" s="9"/>
-      <c r="AB245" s="9"/>
-      <c r="AF245" s="9"/>
-      <c r="AJ245" s="9"/>
-    </row>
-    <row r="246" spans="1:39" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D246" s="8"/>
-      <c r="H246" s="8"/>
-      <c r="L246" s="8"/>
-      <c r="P246" s="8"/>
-      <c r="T246" s="8"/>
-      <c r="X246" s="8"/>
-      <c r="AB246" s="8"/>
-      <c r="AF246" s="8"/>
-      <c r="AJ246" s="8"/>
+    <row r="245" spans="1:39" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D245" s="8"/>
+      <c r="H245" s="8"/>
+      <c r="L245" s="8"/>
+      <c r="P245" s="8"/>
+      <c r="T245" s="8"/>
+      <c r="X245" s="8"/>
+      <c r="AB245" s="8"/>
+      <c r="AF245" s="8"/>
+      <c r="AJ245" s="8"/>
+    </row>
+    <row r="246" spans="1:39" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="L246" s="7"/>
+      <c r="P246" s="7"/>
+      <c r="T246" s="7"/>
+      <c r="X246" s="7"/>
+      <c r="AB246" s="7"/>
+      <c r="AF246" s="7"/>
+      <c r="AJ246" s="7"/>
     </row>
     <row r="247" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -22745,32 +23896,32 @@
       </c>
     </row>
     <row r="285" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:36" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="5"/>
-      <c r="D286" s="9"/>
-      <c r="H286" s="9"/>
-      <c r="L286" s="9"/>
-      <c r="P286" s="9"/>
-      <c r="T286" s="9"/>
-      <c r="X286" s="9"/>
-      <c r="AB286" s="9"/>
-      <c r="AF286" s="9"/>
-      <c r="AJ286" s="9"/>
-    </row>
-    <row r="287" spans="1:36" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D287" s="8"/>
-      <c r="H287" s="8"/>
-      <c r="L287" s="8"/>
-      <c r="P287" s="8"/>
-      <c r="T287" s="8"/>
-      <c r="X287" s="8"/>
-      <c r="AB287" s="8"/>
-      <c r="AF287" s="8"/>
-      <c r="AJ287" s="8"/>
+    <row r="286" spans="1:36" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="4"/>
+      <c r="D286" s="8"/>
+      <c r="H286" s="8"/>
+      <c r="L286" s="8"/>
+      <c r="P286" s="8"/>
+      <c r="T286" s="8"/>
+      <c r="X286" s="8"/>
+      <c r="AB286" s="8"/>
+      <c r="AF286" s="8"/>
+      <c r="AJ286" s="8"/>
+    </row>
+    <row r="287" spans="1:36" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D287" s="7"/>
+      <c r="H287" s="7"/>
+      <c r="L287" s="7"/>
+      <c r="P287" s="7"/>
+      <c r="T287" s="7"/>
+      <c r="X287" s="7"/>
+      <c r="AB287" s="7"/>
+      <c r="AF287" s="7"/>
+      <c r="AJ287" s="7"/>
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -25747,7 +26898,7 @@
       </c>
     </row>
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -25761,7 +26912,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25772,76 +26923,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="11">
         <v>2.02</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>1.4730000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <f>AVERAGE(B2:C2)</f>
         <v>1.7465000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
         <v>2.8159999999999998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>2.0680000000000001</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D5" si="0">AVERAGE(B3:C3)</f>
+      <c r="D3" s="11">
+        <f>AVERAGE(B3:C3)</f>
         <v>2.4420000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>1.62</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>1.5069999999999999</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
+      <c r="D4" s="11">
+        <f>AVERAGE(B4:C4)</f>
         <v>1.5634999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>1.94</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>1.8839999999999999</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
+      <c r="D5" s="11">
+        <f>AVERAGE(B5:C5)</f>
         <v>1.9119999999999999</v>
       </c>
     </row>
@@ -53580,7 +54731,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:G30"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53589,12 +54740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -54397,9 +55548,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:10" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -55206,4 +56357,180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF98E47B-2598-401C-886C-187778AE0D14}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="11">
+        <v>18191.601999999999</v>
+      </c>
+      <c r="C2" s="11">
+        <v>18195.107</v>
+      </c>
+      <c r="D2" s="11">
+        <f>AVERAGE(B2:C2)</f>
+        <v>18193.354500000001</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="11">
+        <v>25527.191999999999</v>
+      </c>
+      <c r="C3" s="11">
+        <v>25512.418000000001</v>
+      </c>
+      <c r="D3" s="11">
+        <f>AVERAGE(B3:C3)</f>
+        <v>25519.805</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5020.8379999999997</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5053.9189999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <f>AVERAGE(B4:C4)</f>
+        <v>5037.3784999999998</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7137.924</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7191.0450000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <f>AVERAGE(B5:C5)</f>
+        <v>7164.4845000000005</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="13"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="13"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="12"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="13"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="13"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="12"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="13"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="13"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="12"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="13"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="12"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="13"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="13"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="12"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="13"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="12"/>
+      <c r="K23" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>